--- a/Inflation.xlsx
+++ b/Inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/755f57de72671e3d/Documents/Master/Bocc/FSS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="386" documentId="8_{F170040C-DF5D-4AE7-967D-10BC79834DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D17C4F1-D136-442C-807B-C85B2F78C66F}"/>
+  <xr:revisionPtr revIDLastSave="470" documentId="8_{F170040C-DF5D-4AE7-967D-10BC79834DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6A4278F-6D91-4A78-B05D-7E033AB32A6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{588CA0E6-BE02-4E0D-B033-56233126E7A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="34">
   <si>
     <t>city</t>
   </si>
@@ -202,9 +202,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68103F90-F741-4EFE-B2E0-AC3816964DDB}">
-  <dimension ref="B2:G386"/>
+  <dimension ref="B2:G450"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A433" zoomScale="102" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6485,10 +6484,10 @@
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B299" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C299" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D299" t="s">
         <v>8</v>
@@ -7123,23 +7122,23 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="331" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="1" t="s">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B331" t="s">
         <v>9</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="C331" t="s">
         <v>13</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="D331" t="s">
         <v>23</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331">
         <v>6</v>
       </c>
-      <c r="F331" s="1">
+      <c r="F331">
         <v>2022</v>
       </c>
-      <c r="G331" s="1">
+      <c r="G331">
         <v>0.51</v>
       </c>
     </row>
@@ -8241,6 +8240,1286 @@
       </c>
       <c r="G386">
         <v>0.93</v>
+      </c>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B387" t="s">
+        <v>9</v>
+      </c>
+      <c r="C387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387">
+        <v>2023</v>
+      </c>
+      <c r="G387">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B388" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" t="s">
+        <v>14</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388">
+        <v>2023</v>
+      </c>
+      <c r="G388">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>15</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>2023</v>
+      </c>
+      <c r="G389">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" t="s">
+        <v>16</v>
+      </c>
+      <c r="D390" t="s">
+        <v>7</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390">
+        <v>2023</v>
+      </c>
+      <c r="G390">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" t="s">
+        <v>17</v>
+      </c>
+      <c r="D391" t="s">
+        <v>7</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391">
+        <v>2023</v>
+      </c>
+      <c r="G391">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>18</v>
+      </c>
+      <c r="D392" t="s">
+        <v>7</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392">
+        <v>2023</v>
+      </c>
+      <c r="G392">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="393" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" t="s">
+        <v>19</v>
+      </c>
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393">
+        <v>2023</v>
+      </c>
+      <c r="G393">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B394" t="s">
+        <v>32</v>
+      </c>
+      <c r="C394" t="s">
+        <v>31</v>
+      </c>
+      <c r="D394" t="s">
+        <v>7</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394">
+        <v>2023</v>
+      </c>
+      <c r="G394">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D395" t="s">
+        <v>8</v>
+      </c>
+      <c r="E395">
+        <v>2</v>
+      </c>
+      <c r="F395">
+        <v>2023</v>
+      </c>
+      <c r="G395">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="396" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B396" t="s">
+        <v>4</v>
+      </c>
+      <c r="C396" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" t="s">
+        <v>8</v>
+      </c>
+      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>2023</v>
+      </c>
+      <c r="G396">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>15</v>
+      </c>
+      <c r="D397" t="s">
+        <v>8</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>2023</v>
+      </c>
+      <c r="G397">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B398" t="s">
+        <v>10</v>
+      </c>
+      <c r="C398" t="s">
+        <v>16</v>
+      </c>
+      <c r="D398" t="s">
+        <v>8</v>
+      </c>
+      <c r="E398">
+        <v>2</v>
+      </c>
+      <c r="F398">
+        <v>2023</v>
+      </c>
+      <c r="G398">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="399" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B399" t="s">
+        <v>11</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
+      <c r="D399" t="s">
+        <v>8</v>
+      </c>
+      <c r="E399">
+        <v>2</v>
+      </c>
+      <c r="F399">
+        <v>2023</v>
+      </c>
+      <c r="G399">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="400" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>18</v>
+      </c>
+      <c r="D400" t="s">
+        <v>8</v>
+      </c>
+      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>2023</v>
+      </c>
+      <c r="G400">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" t="s">
+        <v>19</v>
+      </c>
+      <c r="D401" t="s">
+        <v>8</v>
+      </c>
+      <c r="E401">
+        <v>2</v>
+      </c>
+      <c r="F401">
+        <v>2023</v>
+      </c>
+      <c r="G401">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B402" t="s">
+        <v>32</v>
+      </c>
+      <c r="C402" t="s">
+        <v>31</v>
+      </c>
+      <c r="D402" t="s">
+        <v>8</v>
+      </c>
+      <c r="E402">
+        <v>2</v>
+      </c>
+      <c r="F402">
+        <v>2023</v>
+      </c>
+      <c r="G402">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B403" t="s">
+        <v>9</v>
+      </c>
+      <c r="C403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D403" t="s">
+        <v>20</v>
+      </c>
+      <c r="E403">
+        <v>3</v>
+      </c>
+      <c r="F403">
+        <v>2023</v>
+      </c>
+      <c r="G403">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B404" t="s">
+        <v>4</v>
+      </c>
+      <c r="C404" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404">
+        <v>3</v>
+      </c>
+      <c r="F404">
+        <v>2023</v>
+      </c>
+      <c r="G404">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" t="s">
+        <v>20</v>
+      </c>
+      <c r="E405">
+        <v>3</v>
+      </c>
+      <c r="F405">
+        <v>2023</v>
+      </c>
+      <c r="G405">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B406" t="s">
+        <v>10</v>
+      </c>
+      <c r="C406" t="s">
+        <v>16</v>
+      </c>
+      <c r="D406" t="s">
+        <v>20</v>
+      </c>
+      <c r="E406">
+        <v>3</v>
+      </c>
+      <c r="F406">
+        <v>2023</v>
+      </c>
+      <c r="G406">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B407" t="s">
+        <v>11</v>
+      </c>
+      <c r="C407" t="s">
+        <v>17</v>
+      </c>
+      <c r="D407" t="s">
+        <v>20</v>
+      </c>
+      <c r="E407">
+        <v>3</v>
+      </c>
+      <c r="F407">
+        <v>2023</v>
+      </c>
+      <c r="G407">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B408" t="s">
+        <v>6</v>
+      </c>
+      <c r="C408" t="s">
+        <v>18</v>
+      </c>
+      <c r="D408" t="s">
+        <v>20</v>
+      </c>
+      <c r="E408">
+        <v>3</v>
+      </c>
+      <c r="F408">
+        <v>2023</v>
+      </c>
+      <c r="G408">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" t="s">
+        <v>20</v>
+      </c>
+      <c r="E409">
+        <v>3</v>
+      </c>
+      <c r="F409">
+        <v>2023</v>
+      </c>
+      <c r="G409">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B410" t="s">
+        <v>32</v>
+      </c>
+      <c r="C410" t="s">
+        <v>31</v>
+      </c>
+      <c r="D410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410">
+        <v>3</v>
+      </c>
+      <c r="F410">
+        <v>2023</v>
+      </c>
+      <c r="G410">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B411" t="s">
+        <v>9</v>
+      </c>
+      <c r="C411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D411" t="s">
+        <v>21</v>
+      </c>
+      <c r="E411">
+        <v>4</v>
+      </c>
+      <c r="F411">
+        <v>2023</v>
+      </c>
+      <c r="G411">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B412" t="s">
+        <v>4</v>
+      </c>
+      <c r="C412" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" t="s">
+        <v>21</v>
+      </c>
+      <c r="E412">
+        <v>4</v>
+      </c>
+      <c r="F412">
+        <v>2023</v>
+      </c>
+      <c r="G412">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>15</v>
+      </c>
+      <c r="D413" t="s">
+        <v>21</v>
+      </c>
+      <c r="E413">
+        <v>4</v>
+      </c>
+      <c r="F413">
+        <v>2023</v>
+      </c>
+      <c r="G413">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B414" t="s">
+        <v>10</v>
+      </c>
+      <c r="C414" t="s">
+        <v>16</v>
+      </c>
+      <c r="D414" t="s">
+        <v>21</v>
+      </c>
+      <c r="E414">
+        <v>4</v>
+      </c>
+      <c r="F414">
+        <v>2023</v>
+      </c>
+      <c r="G414">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B415" t="s">
+        <v>11</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+      <c r="D415" t="s">
+        <v>21</v>
+      </c>
+      <c r="E415">
+        <v>4</v>
+      </c>
+      <c r="F415">
+        <v>2023</v>
+      </c>
+      <c r="G415">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B416" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>18</v>
+      </c>
+      <c r="D416" t="s">
+        <v>21</v>
+      </c>
+      <c r="E416">
+        <v>4</v>
+      </c>
+      <c r="F416">
+        <v>2023</v>
+      </c>
+      <c r="G416">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" t="s">
+        <v>19</v>
+      </c>
+      <c r="D417" t="s">
+        <v>21</v>
+      </c>
+      <c r="E417">
+        <v>4</v>
+      </c>
+      <c r="F417">
+        <v>2023</v>
+      </c>
+      <c r="G417">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B418" t="s">
+        <v>32</v>
+      </c>
+      <c r="C418" t="s">
+        <v>31</v>
+      </c>
+      <c r="D418" t="s">
+        <v>21</v>
+      </c>
+      <c r="E418">
+        <v>4</v>
+      </c>
+      <c r="F418">
+        <v>2023</v>
+      </c>
+      <c r="G418">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B419" t="s">
+        <v>9</v>
+      </c>
+      <c r="C419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D419" t="s">
+        <v>22</v>
+      </c>
+      <c r="E419">
+        <v>5</v>
+      </c>
+      <c r="F419">
+        <v>2023</v>
+      </c>
+      <c r="G419">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B420" t="s">
+        <v>4</v>
+      </c>
+      <c r="C420" t="s">
+        <v>14</v>
+      </c>
+      <c r="D420" t="s">
+        <v>22</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+      <c r="F420">
+        <v>2023</v>
+      </c>
+      <c r="G420">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421" t="s">
+        <v>22</v>
+      </c>
+      <c r="E421">
+        <v>5</v>
+      </c>
+      <c r="F421">
+        <v>2023</v>
+      </c>
+      <c r="G421">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B422" t="s">
+        <v>10</v>
+      </c>
+      <c r="C422" t="s">
+        <v>16</v>
+      </c>
+      <c r="D422" t="s">
+        <v>22</v>
+      </c>
+      <c r="E422">
+        <v>5</v>
+      </c>
+      <c r="F422">
+        <v>2023</v>
+      </c>
+      <c r="G422">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+      <c r="C423" t="s">
+        <v>17</v>
+      </c>
+      <c r="D423" t="s">
+        <v>22</v>
+      </c>
+      <c r="E423">
+        <v>5</v>
+      </c>
+      <c r="F423">
+        <v>2023</v>
+      </c>
+      <c r="G423">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>18</v>
+      </c>
+      <c r="D424" t="s">
+        <v>22</v>
+      </c>
+      <c r="E424">
+        <v>5</v>
+      </c>
+      <c r="F424">
+        <v>2023</v>
+      </c>
+      <c r="G424">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+      <c r="C425" t="s">
+        <v>19</v>
+      </c>
+      <c r="D425" t="s">
+        <v>22</v>
+      </c>
+      <c r="E425">
+        <v>5</v>
+      </c>
+      <c r="F425">
+        <v>2023</v>
+      </c>
+      <c r="G425">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B426" t="s">
+        <v>32</v>
+      </c>
+      <c r="C426" t="s">
+        <v>31</v>
+      </c>
+      <c r="D426" t="s">
+        <v>22</v>
+      </c>
+      <c r="E426">
+        <v>5</v>
+      </c>
+      <c r="F426">
+        <v>2023</v>
+      </c>
+      <c r="G426">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B427" t="s">
+        <v>9</v>
+      </c>
+      <c r="C427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" t="s">
+        <v>23</v>
+      </c>
+      <c r="E427">
+        <v>6</v>
+      </c>
+      <c r="F427">
+        <v>2023</v>
+      </c>
+      <c r="G427">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B428" t="s">
+        <v>4</v>
+      </c>
+      <c r="C428" t="s">
+        <v>14</v>
+      </c>
+      <c r="D428" t="s">
+        <v>23</v>
+      </c>
+      <c r="E428">
+        <v>6</v>
+      </c>
+      <c r="F428">
+        <v>2023</v>
+      </c>
+      <c r="G428">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" t="s">
+        <v>23</v>
+      </c>
+      <c r="E429">
+        <v>6</v>
+      </c>
+      <c r="F429">
+        <v>2023</v>
+      </c>
+      <c r="G429">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B430" t="s">
+        <v>10</v>
+      </c>
+      <c r="C430" t="s">
+        <v>16</v>
+      </c>
+      <c r="D430" t="s">
+        <v>23</v>
+      </c>
+      <c r="E430">
+        <v>6</v>
+      </c>
+      <c r="F430">
+        <v>2023</v>
+      </c>
+      <c r="G430">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B431" t="s">
+        <v>11</v>
+      </c>
+      <c r="C431" t="s">
+        <v>17</v>
+      </c>
+      <c r="D431" t="s">
+        <v>23</v>
+      </c>
+      <c r="E431">
+        <v>6</v>
+      </c>
+      <c r="F431">
+        <v>2023</v>
+      </c>
+      <c r="G431">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>18</v>
+      </c>
+      <c r="D432" t="s">
+        <v>23</v>
+      </c>
+      <c r="E432">
+        <v>6</v>
+      </c>
+      <c r="F432">
+        <v>2023</v>
+      </c>
+      <c r="G432">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B433" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" t="s">
+        <v>19</v>
+      </c>
+      <c r="D433" t="s">
+        <v>23</v>
+      </c>
+      <c r="E433">
+        <v>6</v>
+      </c>
+      <c r="F433">
+        <v>2023</v>
+      </c>
+      <c r="G433">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B434" t="s">
+        <v>32</v>
+      </c>
+      <c r="C434" t="s">
+        <v>31</v>
+      </c>
+      <c r="D434" t="s">
+        <v>23</v>
+      </c>
+      <c r="E434">
+        <v>6</v>
+      </c>
+      <c r="F434">
+        <v>2023</v>
+      </c>
+      <c r="G434">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D435" t="s">
+        <v>24</v>
+      </c>
+      <c r="E435">
+        <v>7</v>
+      </c>
+      <c r="F435">
+        <v>2023</v>
+      </c>
+      <c r="G435">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B436" t="s">
+        <v>4</v>
+      </c>
+      <c r="C436" t="s">
+        <v>14</v>
+      </c>
+      <c r="D436" t="s">
+        <v>24</v>
+      </c>
+      <c r="E436">
+        <v>7</v>
+      </c>
+      <c r="F436">
+        <v>2023</v>
+      </c>
+      <c r="G436">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437" t="s">
+        <v>24</v>
+      </c>
+      <c r="E437">
+        <v>7</v>
+      </c>
+      <c r="F437">
+        <v>2023</v>
+      </c>
+      <c r="G437">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B438" t="s">
+        <v>10</v>
+      </c>
+      <c r="C438" t="s">
+        <v>16</v>
+      </c>
+      <c r="D438" t="s">
+        <v>24</v>
+      </c>
+      <c r="E438">
+        <v>7</v>
+      </c>
+      <c r="F438">
+        <v>2023</v>
+      </c>
+      <c r="G438">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>17</v>
+      </c>
+      <c r="D439" t="s">
+        <v>24</v>
+      </c>
+      <c r="E439">
+        <v>7</v>
+      </c>
+      <c r="F439">
+        <v>2023</v>
+      </c>
+      <c r="G439">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B440" t="s">
+        <v>6</v>
+      </c>
+      <c r="C440" t="s">
+        <v>18</v>
+      </c>
+      <c r="D440" t="s">
+        <v>24</v>
+      </c>
+      <c r="E440">
+        <v>7</v>
+      </c>
+      <c r="F440">
+        <v>2023</v>
+      </c>
+      <c r="G440">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B441" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" t="s">
+        <v>19</v>
+      </c>
+      <c r="D441" t="s">
+        <v>24</v>
+      </c>
+      <c r="E441">
+        <v>7</v>
+      </c>
+      <c r="F441">
+        <v>2023</v>
+      </c>
+      <c r="G441">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B442" t="s">
+        <v>32</v>
+      </c>
+      <c r="C442" t="s">
+        <v>31</v>
+      </c>
+      <c r="D442" t="s">
+        <v>24</v>
+      </c>
+      <c r="E442">
+        <v>7</v>
+      </c>
+      <c r="F442">
+        <v>2023</v>
+      </c>
+      <c r="G442">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" t="s">
+        <v>13</v>
+      </c>
+      <c r="D443" t="s">
+        <v>25</v>
+      </c>
+      <c r="E443">
+        <v>8</v>
+      </c>
+      <c r="F443">
+        <v>2023</v>
+      </c>
+      <c r="G443">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B444" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" t="s">
+        <v>14</v>
+      </c>
+      <c r="D444" t="s">
+        <v>25</v>
+      </c>
+      <c r="E444">
+        <v>8</v>
+      </c>
+      <c r="F444">
+        <v>2023</v>
+      </c>
+      <c r="G444">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>15</v>
+      </c>
+      <c r="D445" t="s">
+        <v>25</v>
+      </c>
+      <c r="E445">
+        <v>8</v>
+      </c>
+      <c r="F445">
+        <v>2023</v>
+      </c>
+      <c r="G445">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446" t="s">
+        <v>16</v>
+      </c>
+      <c r="D446" t="s">
+        <v>25</v>
+      </c>
+      <c r="E446">
+        <v>8</v>
+      </c>
+      <c r="F446">
+        <v>2023</v>
+      </c>
+      <c r="G446">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="447" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>17</v>
+      </c>
+      <c r="D447" t="s">
+        <v>25</v>
+      </c>
+      <c r="E447">
+        <v>8</v>
+      </c>
+      <c r="F447">
+        <v>2023</v>
+      </c>
+      <c r="G447">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B448" t="s">
+        <v>6</v>
+      </c>
+      <c r="C448" t="s">
+        <v>18</v>
+      </c>
+      <c r="D448" t="s">
+        <v>25</v>
+      </c>
+      <c r="E448">
+        <v>8</v>
+      </c>
+      <c r="F448">
+        <v>2023</v>
+      </c>
+      <c r="G448">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="449" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B449" t="s">
+        <v>12</v>
+      </c>
+      <c r="C449" t="s">
+        <v>19</v>
+      </c>
+      <c r="D449" t="s">
+        <v>25</v>
+      </c>
+      <c r="E449">
+        <v>8</v>
+      </c>
+      <c r="F449">
+        <v>2023</v>
+      </c>
+      <c r="G449">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="450" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B450" t="s">
+        <v>32</v>
+      </c>
+      <c r="C450" t="s">
+        <v>31</v>
+      </c>
+      <c r="D450" t="s">
+        <v>25</v>
+      </c>
+      <c r="E450">
+        <v>8</v>
+      </c>
+      <c r="F450">
+        <v>2023</v>
+      </c>
+      <c r="G450">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
